--- a/my doc/files/Gamma/Book1.xlsx
+++ b/my doc/files/Gamma/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18135" windowHeight="10455"/>
+    <workbookView xWindow="480" yWindow="48" windowWidth="18132" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4847,11 +4847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128490112"/>
-        <c:axId val="138707328"/>
+        <c:axId val="33621504"/>
+        <c:axId val="33623424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128490112"/>
+        <c:axId val="33621504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4880,7 +4880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138707328"/>
+        <c:crossAx val="33623424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4888,7 +4888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138707328"/>
+        <c:axId val="33623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4919,7 +4919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128490112"/>
+        <c:crossAx val="33621504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4932,8 +4932,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.1361111111111111"/>
           <c:y val="5.4979585885097694E-2"/>
-          <c:w val="0.24687554680664917"/>
-          <c:h val="0.21874416739574221"/>
+          <c:w val="0.39113581106229123"/>
+          <c:h val="0.22361016916681034"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4990,8 +4990,8 @@
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1381125" cy="781240"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -5027,6 +5027,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -5037,7 +5038,7 @@
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>L</m:t>
+                      <m:t>𝐿</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -5067,7 +5068,7 @@
                               <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math"/>
                               </a:rPr>
-                              <m:t>V</m:t>
+                              <m:t>𝑉</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -5120,11 +5121,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>L</m:t>
+                      <m:t>𝐿</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -5132,7 +5133,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5146,7 +5147,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5161,7 +5162,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5174,11 +5175,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>V</m:t>
+                              <m:t>𝑉</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -5193,7 +5194,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5233,11 +5234,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>L</m:t>
+                      <m:t>𝐿</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -5245,7 +5246,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -5259,7 +5260,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5274,7 +5275,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5287,11 +5288,11 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>V</m:t>
+                              <m:t>𝑉</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -5311,7 +5312,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -5330,7 +5331,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5370,7 +5371,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -5582,7 +5583,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5592,34 +5593,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -5773,7 +5774,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -5782,7 +5783,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -5791,7 +5792,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -5871,12 +5872,12 @@
   <dimension ref="A1:E257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="J230" sqref="J230"/>
+      <selection activeCell="I234" sqref="I234"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5910,7 +5911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>0.100001508502646</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>0.100007961924701</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>0.100021068668395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>0.100042023290513</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5995,7 +5996,7 @@
         <v>0.100071791675108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6012,7 +6013,7 @@
         <v>0.100111201098467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>0.10016098350263899</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6046,7 +6047,7 @@
         <v>0.100221800257075</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>0.100294257878176</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>0.100378918732933</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>0.100476308707241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>0.100586922916458</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6131,7 +6132,7 @@
         <v>0.10071123008982499</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>0.10084967602094901</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>0.10100268633935</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>0.10117066877529</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6199,7 +6200,7 @@
         <v>0.101354015037863</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>0.10155310239224299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6233,7 +6234,7 @@
         <v>0.101768294999015</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>0.101999945062581</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>0.102248393824405</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>0.1025139724287</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>0.10279700268219601</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>0.10309779772512399</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -6335,7 +6336,7 @@
         <v>0.10341666262718301</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -6352,7 +6353,7 @@
         <v>0.10375389491962</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>0.104109785072538</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>0.104484616924945</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -6403,7 +6404,7 @@
         <v>0.104878668073785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>0.105292210227185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6437,7 +6438,7 @@
         <v>0.10572550952630699</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>0.10617882683956301</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -6471,7 +6472,7 @@
         <v>0.106652418032351</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>0.107146534215064</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -6505,7 +6506,7 @@
         <v>0.10766142197171701</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>0.108197323571221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6539,7 +6540,7 @@
         <v>0.108754477163093</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>0.109333116959124</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6573,7 +6574,7 @@
         <v>0.109933473402386</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6590,7 +6591,7 @@
         <v>0.110555773324752</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>0.111200240093987</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>0.111867093751345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6641,7 +6642,7 @@
         <v>0.11255655114050001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6658,7 +6659,7 @@
         <v>0.11326882602854201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>0.114004129219711</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>0.114762668662443</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6709,7 +6710,7 @@
         <v>0.11554464955028</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6726,7 +6727,7 @@
         <v>0.116350274417102</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>0.11717974322712101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6760,7 +6761,7 @@
         <v>0.118033253460041</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6777,7 +6778,7 @@
         <v>0.118911000191707</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6794,7 +6795,7 @@
         <v>0.119813176170596</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6811,7 +6812,7 @@
         <v>0.120739971890429</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>0.121691575659162</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>0.122668173664625</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>0.123669950037003</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>0.124697086908389</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6896,7 +6897,7 @@
         <v>0.12574976446958</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>0.12682816102429401</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>0.127932453040975</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6947,7 +6948,7 @@
         <v>0.12906281520232099</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6964,7 +6965,7 @@
         <v>0.13021942045267401</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>0.13140244004340501</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>0.132612043576399</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>0.13384839904576101</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -7032,7 +7033,7 @@
         <v>0.135111672877822</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>0.13640202996956699</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>0.13771963372554599</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>0.13906464609336</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>0.1404372275978</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>0.141837537373698</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>0.143265733197569</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>0.14472197151810001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>0.14620640748552999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7185,7 +7186,7 @@
         <v>0.14771919498000599</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7202,7 +7203,7 @@
         <v>0.14926048663893299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7219,7 +7220,7 @@
         <v>0.15083043388338299</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>0.15242918694360499</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7253,7 +7254,7 @@
         <v>0.15405689488367899</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7270,7 +7271,7 @@
         <v>0.15571370562534501</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>0.15739976597105801</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>0.159115221626287</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>0.16086021722111399</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>0.16263489633113601</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>0.16443940149772501</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7372,7 +7373,7 @@
         <v>0.16627387424765899</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7389,7 +7390,7 @@
         <v>0.168138455112155</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>0.17003328364532599</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>0.17195849844209701</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>0.17391423715557999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>0.17590063651395399</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7474,7 +7475,7 @@
         <v>0.17791783233685499</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>0.17996595955129699</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>0.18204515220715201</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>0.18415554349218599</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7542,7 +7543,7 @@
         <v>0.186297265746695</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>0.18847045047772701</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7576,7 +7577,7 @@
         <v>0.19067522837293599</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>0.19291172931404901</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>0.19518008238998899</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7627,7 +7628,7 @@
         <v>0.19748041590964999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>0.19981285741434099</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>0.20217753368990901</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>0.20457457077855701</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>0.20700409399036401</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>0.209466227914515</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>0.21196109643025399</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -7746,7 +7747,7 @@
         <v>0.214488822717575</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -7763,7 +7764,7 @@
         <v>0.21704952926764601</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>0.21964333789298801</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>0.22227036973740799</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -7814,7 +7815,7 @@
         <v>0.22493074528570201</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>0.22762458437312899</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -7848,7 +7849,7 @@
         <v>0.23035200619466401</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>0.23311312931404399</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>0.235908071672599</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>0.23873695059789601</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>0.24159988281218001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -7933,7 +7934,7 @@
         <v>0.24449698444063001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -7950,7 +7951,7 @@
         <v>0.24742837101943799</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -7967,7 +7968,7 @@
         <v>0.25039415750370603</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>0.25339445827517498</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8001,7 +8002,7 @@
         <v>0.25642938714979102</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>0.25949905738510398</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>0.26260358168751602</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>0.26574307221937798</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>0.26891764060593198</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>0.27212739794211999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>0.27537245479924799</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>0.27865292123151802</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>0.28196890678242398</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>0.28532052049102602</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>0.28870787089809502</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>0.29213106605214501</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>0.29559021351533199</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>0.299085420369258</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>0.30261679322064899</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>0.30618443820693197</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>0.30978846100169999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>0.31342896682008597</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>0.31710606042402001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>0.320819846127405</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>0.324570427801185</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>0.328357908878331</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -8375,7 +8376,7 @@
         <v>0.33218239235872599</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -8392,7 +8393,7 @@
         <v>0.33604398081397202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -8409,7 +8410,7 @@
         <v>0.33994277639210002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>0.34387888082221202</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -8443,7 +8444,7 @@
         <v>0.34785239541902202</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -8460,7 +8461,7 @@
         <v>0.35186342108733198</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>0.35591205832642497</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -8494,7 +8495,7 @@
         <v>0.35999840723437998</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -8511,7 +8512,7 @@
         <v>0.36412256751231897</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -8528,7 +8529,7 @@
         <v>0.36828463846856901</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -8545,7 +8546,7 @@
         <v>0.37248471902277303</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -8562,7 +8563,7 @@
         <v>0.37672290770991201</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>0.38099930268427001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>0.38531400172333402</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -8613,7 +8614,7 @@
         <v>0.38966710223162299</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>0.39405870124446302</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -8647,7 +8648,7 @@
         <v>0.39848889543168797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>0.40295778110129499</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>0.40746545420302899</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -8698,7 +8699,7 @@
         <v>0.41201201033191698</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>0.41659754473174299</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -8732,7 +8733,7 @@
         <v>0.42122215229846799</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>0.425885927583599</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>0.43058896479749798</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>0.43533135781265098</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>0.44011320016687699</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>0.44493458506649097</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>0.44979560538941799</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -8851,7 +8852,7 @@
         <v>0.454696353688263</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -8868,7 +8869,7 @@
         <v>0.45963692219332902</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -8885,7 +8886,7 @@
         <v>0.46461740281559399</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>0.469637887149643</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>0.474698466476555</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>0.47979923176674799</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>0.48494027368278297</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>0.49012168258212901</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>0.49534354851987999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -9004,7 +9005,7 @@
         <v>0.50060596125144297</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>0.50590901023518198</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>0.51125278463502399</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -9055,7 +9056,7 @@
         <v>0.51663737332303095</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>0.52206286488192999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>0.52752934760761605</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -9106,7 +9107,7 @@
         <v>0.53303690951161398</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>0.53858563832350603</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>0.54417562149332999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>0.54980694619393999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -9174,7 +9175,7 @@
         <v>0.55547969932333896</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -9191,7 +9192,7 @@
         <v>0.56119396750697603</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>0.56694983710001401</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>0.57274739418956799</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -9242,7 +9243,7 @@
         <v>0.57858672459691396</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -9259,7 +9260,7 @@
         <v>0.58446791387966301</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -9276,7 +9277,7 @@
         <v>0.59039104733391101</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>0.59635620999636396</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>0.60236348664642603</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>0.60841296180826698</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -9344,7 +9345,7 @@
         <v>0.61450471975286203</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -9361,7 +9362,7 @@
         <v>0.62063884450000095</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -9378,7 +9379,7 @@
         <v>0.62681541982028</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -9395,7 +9396,7 @@
         <v>0.63303452923705705</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -9412,7 +9413,7 @@
         <v>0.63929625602839502</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -9429,7 +9430,7 @@
         <v>0.64560068322896702</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -9446,7 +9447,7 @@
         <v>0.65194789363194605</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -9463,7 +9464,7 @@
         <v>0.658337969790873</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -9480,7 +9481,7 @@
         <v>0.66477099402148998</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>0.67124704840356497</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>0.67776621478268495</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>0.68432857477202602</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -9548,7 +9549,7 @@
         <v>0.69093420975411002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -9565,7 +9566,7 @@
         <v>0.69758320088253001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -9582,7 +9583,7 @@
         <v>0.70427562908366503</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>0.71101157505836299</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>0.71779111928361194</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>0.72461434201418995</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -9650,7 +9651,7 @@
         <v>0.73148132328429005</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -9667,7 +9668,7 @@
         <v>0.73839214290913002</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -9684,7 +9685,7 @@
         <v>0.74534688048654696</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>0.75234561539856604</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -9718,7 +9719,7 @@
         <v>0.75938842681295204</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -9735,7 +9736,7 @@
         <v>0.76647539368474704</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>0.77360659475778804</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -9769,7 +9770,7 @@
         <v>0.780782108566207</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>0.78800201343591003</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9803,7 +9804,7 @@
         <v>0.79526638748605005</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9820,7 +9821,7 @@
         <v>0.802575308630466</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>0.809928854579127</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>0.81732710283953802</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>0.82477013071814897</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>0.83225801532173305</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9905,7 +9906,7 @@
         <v>0.83979083355875905</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>0.84736866214074902</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9939,7 +9940,7 @@
         <v>0.854991577583609</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9956,7 +9957,7 @@
         <v>0.86265965620896101</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9973,7 +9974,7 @@
         <v>0.87037297414545101</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9990,7 +9991,7 @@
         <v>0.87813160733004203</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>0.88593563150930099</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>0.89378512224065898</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -10041,7 +10042,7 @@
         <v>0.90168015489367404</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -10058,7 +10059,7 @@
         <v>0.90962080465126505</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -10075,7 +10076,7 @@
         <v>0.917607146510942</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -10092,7 +10093,7 @@
         <v>0.92563925528601998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>0.93371720560681903</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -10126,7 +10127,7 @@
         <v>0.94184107192185795</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -10143,7 +10144,7 @@
         <v>0.95001092849902402</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -10160,7 +10161,7 @@
         <v>0.95822684942673897</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -10177,7 +10178,7 @@
         <v>0.96648890861511605</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>0.97479717979709202</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>0.98315173652955801</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -10228,7 +10229,7 @@
         <v>0.99155265219448097</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -10259,7 +10260,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10272,7 +10273,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/my doc/files/Gamma/Book1.xlsx
+++ b/my doc/files/Gamma/Book1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="18132" windowHeight="10452" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="18135" windowHeight="10455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Y" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4853,11 +4853,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83371520"/>
-        <c:axId val="83373440"/>
+        <c:axId val="139917952"/>
+        <c:axId val="140534528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83371520"/>
+        <c:axId val="139917952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83373440"/>
+        <c:crossAx val="140534528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4893,7 +4893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83373440"/>
+        <c:axId val="140534528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4923,7 +4923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83371520"/>
+        <c:crossAx val="139917952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9703,11 +9703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83655296"/>
-        <c:axId val="83665664"/>
+        <c:axId val="139678080"/>
+        <c:axId val="139680000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83655296"/>
+        <c:axId val="139678080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9729,14 +9729,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83665664"/>
+        <c:crossAx val="139680000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9744,7 +9743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83665664"/>
+        <c:axId val="139680000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9768,14 +9767,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83655296"/>
+        <c:crossAx val="139678080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10415,11 +10413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83704064"/>
-        <c:axId val="83714432"/>
+        <c:axId val="139793152"/>
+        <c:axId val="139795072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83704064"/>
+        <c:axId val="139793152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10441,14 +10439,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83714432"/>
+        <c:crossAx val="139795072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10456,7 +10453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83714432"/>
+        <c:axId val="139795072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10479,14 +10476,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83704064"/>
+        <c:crossAx val="139793152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11126,11 +11122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="29514752"/>
-        <c:axId val="32033024"/>
+        <c:axId val="141190656"/>
+        <c:axId val="141192576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="29514752"/>
+        <c:axId val="141190656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11160,7 +11156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32033024"/>
+        <c:crossAx val="141192576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11168,7 +11164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32033024"/>
+        <c:axId val="141192576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11199,7 +11195,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="29514752"/>
+        <c:crossAx val="141190656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11821,11 +11817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92026368"/>
-        <c:axId val="92027904"/>
+        <c:axId val="140838784"/>
+        <c:axId val="140849152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92026368"/>
+        <c:axId val="140838784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11859,7 +11855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92027904"/>
+        <c:crossAx val="140849152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11867,7 +11863,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92027904"/>
+        <c:axId val="140849152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11902,7 +11898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92026368"/>
+        <c:crossAx val="140838784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11916,6 +11912,2525 @@
           <c:x val="0.71666666666666667"/>
           <c:y val="0.53646106736657906"/>
           <c:w val="0.24687554680664917"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100J'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Absolute</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100J'!$E$2:$E$257</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000_ ;[Red]\-0.00000\ </c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="1">
+                  <c:v>0.3555353375883108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36536876458952994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36915347744512894</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37162078659187014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37345733528111991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3749202927563402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37613531964496971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37717350109949033</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37807905143626996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.37888137886405993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3796010489194197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38025301484092022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38084849384413033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38139611859993927</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38190267619482032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.38237360025035994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.38281330905240996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38322544416319992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.38361304274252017</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.38397866453513974</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38432448713248046</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38465237857599988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38496395348057</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.38526061697580083</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38554359950871842</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.3858139846993307</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38607273185025015</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.3863206942979005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.38655863449299943</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3867872364894005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3870071163551998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.38721883090989984</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.38742288509999945</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.38761973826069962</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.38780980945860044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38799348207430029</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38817110775000074</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38834300980570013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.38850948620679837</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.38867081215290078</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38882724234409949</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.38897901297150028</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.38912634347170183</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38926943807829772</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.38940848719700227</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.38954366862929746</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38967514866279984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38980308304680023</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.38992761786600028</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39004889032510093</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.39016702945669834</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.39028215675800126</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39039438676849869</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.39050382759160129</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39061058136919868</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39071474471370138</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.39081640910010051</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.39091566122489851</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.39101258333420219</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.39110725352379916</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39119974601399932</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.39129013140300017</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.39137847689909933</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.39146484653480229</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.3915493013640976</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.39163189964500233</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.39171269700819877</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39179174661239813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.39186909929030023</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.39194480368110263</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.39201890635609971</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.39209145193449757</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.39216248319150182</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.39223204115759813</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.39230016521400302</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.39236689317899831</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.39243226138989939</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.39249630478030184</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.39255905695059923</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.39262055023580089</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.39268081576819824</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.39273988353670219</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.392797782441896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.39285454034840228</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.39291018413410228</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.39296473973589485</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.39301823219350496</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.39307068569069514</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.39312212359310195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.39317256848629967</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.39322204220840007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.39327056588430054</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39331815995569741</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.39336484421040296</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.39341063781049712</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.39345555931730303</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.39349962671820293</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.39354285744809658</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39358526841330388</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.39362687601200008</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.39366769615499919</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.39370774428429911</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.39374703539209577</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.39378558403720376</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.39382340436259966</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.39386051011069867</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.39389691463829735</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.39393263093090525</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.39396767161679946</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.39400204897980018</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.39403577497130016</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.39406886122309714</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.3941013190579028</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39413315950059769</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.39416439328859809</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.39419503088180363</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.39422508247179877</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.39425455799170095</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.39428346712379891</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.39431181930910242</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.39433962375429843</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.39436688944010001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.39439362512869991</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.39441983937000202</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.39444554050939473</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.39447073669360577</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.39449543587739555</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.39451964582929833</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.39454337413719998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.3945666282149034</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.39458941530570257</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.394611742489694</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.39463361668670416</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.39465504466230072</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.39467603303199894</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.39469658826600096</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.39471671669240038</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.39473642450289503</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.3947557177552028</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.39477460237809936</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.3947930841739975</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.39481116882350165</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39482886188810085</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.39484616881389911</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.39486309493450023</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.39487964547440413</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.39489582555160041</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.39491164018079417</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.39492709427599948</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.39494219265340291</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.39495694003340276</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.39497134104419729</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.39498540022280082</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.3949991220188025</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.39501251079549604</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.39502557083289958</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.39503830632919801</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.39505072140370601</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.39506282009759985</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.39507460637720015</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.39508608413479607</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.39509725719110378</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.39510812929690076</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.39511870413409156</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.39512898531860685</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.39513897640080131</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.39514868086769184</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.395158102144606</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.39516724359559419</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.39517610852630014</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.39518470018430207</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.39519302176100268</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.39520107639219759</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.39520886716070436</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.39521639709599299</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.39522366917640284</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.39523068633010894</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.3952374514362873</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.39524396732571176</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.39525023678248772</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.39525626254470581</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.39526204730580616</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.39526759371469211</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.39527290437800389</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.39527798185979179</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.3952828286836052</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.39528744733169674</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.39529184024800657</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.39529600983729551</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.39529995846650934</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.39530368846598662</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.39530720212970039</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.39531050171581228</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.3953135894484916</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.39531646751720473</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.39531913807839203</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.3953216032558089</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.39532386514129314</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.39532592579520553</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.39532778724709772</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.3953294514969059</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.39533092051429719</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.39533219624070171</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.39533328058860207</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.39533417544299709</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.39533488266170025</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.39533540407539647</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.39533574148879325</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.3953358966807059</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.39533587140519444</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.39533566739041248</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.39533528634159154</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.39533472993910834</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.39533399984028961</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.39533309767949731</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.39533202506871135</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.39533078359708895</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.39532937483311059</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.39532780032300252</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.39532606159229999</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.39532416014648675</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.39532209746990077</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.3953198750281075</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.39531749426609508</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.39531495661070437</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.39531226346929316</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.39530941623090143</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.39530641626670615</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.39530326492969436</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.39529996355560115</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.39529651346259698</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.39529291595231086</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.3952891723096883</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.39528528380280648</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.3952812516842954</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.39527707719091154</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.39527276154329627</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.39526830594759588</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.39526371159439577</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.39525897965970103</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.39525411130480848</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.39524910767710253</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.39524396990960042</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.39523869912149223</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.39523329641849614</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.39522776289290107</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.39522209962390775</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.39521630767769977</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.39521038810740095</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.39520434195439691</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.39519817024660142</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.39519187400109956</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.395185454221604</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.39517891190139665</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.39517224802129647</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100J'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Offset Inside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100J'!$F$2:$F$257</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000_ ;[Red]\-0.00000\ </c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="1">
+                  <c:v>0.36056873384815002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36097990176493067</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36136567539388942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3617288219702699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.36207167815705077</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36239623513021968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36270420361242994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36299706427475087</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.36327610729017934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36354246372740917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36379713072622977</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.36404099187761041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36427483386487047</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.36449936016130025</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36471520238630006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36492292978789997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.36512305720789939</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36531605181330029</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.36550233881859917</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36568230637140076</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.36585630974740013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3660246749678997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.36618770193109995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.36634566713640027</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.36649882606159956</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.36664741524459998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36679165411500136</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.36693174660759986</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36706788259099987</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.36720023913479771</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3673289816366001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.36745426482790222</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.36757623367419967</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36769502418129818</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36781076411990199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36792357367939843</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36803356605659943</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.36814084798930224</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36824552023979962</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.36834767803290092</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36844741145579718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.36854480582220006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36863994200390238</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36873289673419762</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.36882374288760289</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.36891254973309984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.36899938316999936</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.36908430594260011</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.36916737783949927</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.36924865587650046</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.36932819446569809</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.36940604557250012</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.36948225885960184</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36955688182250057</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36962995991299863</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.36970153665589933</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.36977165375609999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.36984035119920122</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.36990766734480118</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.36997363901379998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.37003830156960049</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.37010168899459828</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37016383396100139</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.37022476789739756</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.37028452105140275</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.37034312254879964</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.3704006004471978</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.37045698178869912</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.37051229264860197</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3705665581802009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.37061980265859873</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.37067204952079891</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.37072332140429864</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.37077364018250591</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.37082302699989356</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.37087150230300381</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.3709190858715985</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.37096579684690312</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.37101165375959511</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.37105667455490021</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.37110087661709912</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.37114427679350115</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.37118689141509975</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.37122873631859932</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.37126982686610432</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.37131017796299659</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.37134980407709861</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.37138871925520078</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.37142693713879993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.3714644709806052</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.37150133365829419</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.37153753768890141</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.37157309524260285</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.37160801815449673</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.37164231793780544</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.37167600579509497</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.37170909262910357</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.37174158905359889</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.37177350540390108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.37180485174589961</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.37183563788580187</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.37186587337889421</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.37189556753800446</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.37192472944180111</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.37195336794239608</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.3719814916731039</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.37200910905529838</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.37203622830559624</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.37206285744220224</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.372089004291702</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.37211467649449759</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.37213988151140143</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.37216462662829741</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.37218891896279871</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.37221276546830495</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.37223617293989975</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.37225914801799576</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.37228169719460169</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.3723038268162</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.37232554308910437</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.37234685208299823</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.37236775973519798</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.37238827185429813</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.37240839412420002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.37242813210740167</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.37244749124820231</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.37246647687690171</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.37248509421159781</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.37250334836309662</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.37252124433599931</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.3725387870331005</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.37255598125710065</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.37257283171430089</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.3725893430159033</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.37260551968199707</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.3726213661430009</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.37263688674210016</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.37265208573789721</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.37266696730630144</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.37268153554310146</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.37269579446489587</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.37270974801300127</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.37272340005330307</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.37273675437960208</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.37274981471459512</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.37276258471250401</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.3727750679593953</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.37278726797650563</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.37279918822029856</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.37281083208520016</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.37282220290419588</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.37283330395120373</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.37284413844160014</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.37285470953399624</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.37286502033180113</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.37287507388400343</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.37288487318709684</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.37289442118530047</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.37290372077289646</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.37291277479469898</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.37292158604689973</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.37293015727929912</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.37293849119490119</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.3729465904521021</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.37295445766530122</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.37296209540519953</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.37296950620130076</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.3729766925412008</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.37298365687230728</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.3729904016028911</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.37299692910220017</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.37300324170190891</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.37300934169678612</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.37301523134530612</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.37302091287050132</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.37302638846060177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.37303166027010093</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.37303673042019625</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.37304160099930073</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.37304627406379609</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.37305075163929757</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.37305503572031284</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.37305912827169152</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.37306303122819884</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.37306674649690308</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.37307027595520026</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.37307362145409684</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.37307678481660389</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.3730797678393003</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.3730825722929012</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.37308519992200218</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.37308765244669928</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.37308993156209169</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.37309203893910592</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.37309397622509266</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.37309574504391207</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.37309734699729802</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.37309878366339433</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.37310005659969647</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.3731011673409057</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.37310211740170018</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.37310290827510073</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.37310354143399138</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.37310401833150308</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.37310434040080054</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.37310450905570747</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.37310452569138874</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.3731043916841088</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.37310410839170061</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.37310367715460302</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.37310309929509344</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.37310237611809782</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.37310150891180172</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.37310049894750819</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.37309934748009255</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.37309805574800237</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.37309662497429485</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.37309505636599738</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.37309335111490327</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.37309151039769972</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.37308953537630885</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.37308742719800136</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.37308518699569504</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.3730828158879973</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.37308031498029948</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.37307768536349784</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.37307492811579834</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.37307204430150875</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.37306903497270127</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.37306590116818938</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.37306264391411048</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.37305926422489222</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.37305576310190247</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.37305214153529676</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.37304840050310872</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.37304454097179018</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.37304056389650952</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.37303647022089592</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.37303226087810515</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.37302793678959745</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.37302349886689967</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.37301894801069579</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.37301428511109691</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.37300951104820967</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.37300462669199419</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.37299963290260507</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.37299453053019249</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.37298932041549904</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.37298400338990234</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.37297858027520192</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.37297305188390339</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.37296741902000008</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.37296168247789296</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.37295584304379759</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.37294990149490559</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'100J'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Offset Outside</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'100J'!$G$2:$G$257</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000_ ;[Red]\-0.00000\ </c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="1">
+                  <c:v>3.8181570020601185E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6292857706620367E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2886630246779625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2023697672730407E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2773892037679921E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.4397772576630068E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11626803015879972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13785807943426054</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15874544798374934</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17861365560770004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19724759740647002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21452246033171019</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23038837307148974</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24485346910888062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25796759089296994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26980806059785944</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28046816450483014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29004841837798079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29865033308425026</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.30637224245306882</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31330672628267031</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.31953920369899969</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.32514734486043118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.33020102729766876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33476263409960083</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.33888754963609991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.34262475386729996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34601744995019956</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.34910368396569957</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35191693235400123</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.3544866439726988</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.35683873110740016</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.35899600845599977</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.36097858192680121</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36280419066650005</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.3644885064872998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.36604539511020029</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.36748714357019985</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36882465787680019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37006763468719939</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.37122471036760096</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.37230359044059824</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.37331116205379899</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.37425359176470252</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37513641064579772</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37596458842820013</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.37674259818270173</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.37747447281589785</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.37816385449020018</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.37881403791700308</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.37942800833869939</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.38000847490589962</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.38055790005019929</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38107852537769915</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.38157239452809932</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.38204137339010202</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.38248716800449856</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.38291134044580133</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.38331532293240045</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.38370043038129964</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.38406787159690126</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.38441875925689928</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.38475411883799993</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.38507489660440086</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.38538196677119885</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.38567613793169997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.38595815883730111</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.38622872359949767</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38648847637800188</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.38673801561309773</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.38697789784919934</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.38720864119520115</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.38743072845960214</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.38764460999369987</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.38785070627349683</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.38804941024800144</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.38824108947600067</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.38842608807360079</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.38860472849079741</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.38877731313420227</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.38894412584999927</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.38910543328210068</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.38926148611520262</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.38941252021609785</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.38955875768019865</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.38970040779319959</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.38983766791660202</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.38997072430159818</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.39009975283980225</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.39022491975480023</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.3903463822420008</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.39046428905719921</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.39057878106410016</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.39068999173729679</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.3907980476316979</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.39090306881430337</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.39100516926770013</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.39110445726220178</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.39120103570299847</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.39129500245240223</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.3913864506302005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.39147546889189755</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.39156214169020132</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.39164654951599687</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.39172876912630272</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.39180887375430018</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.39188693330729762</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.39196301455130111</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.3920371812832002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.39210949449289956</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.39218001251409618</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.39224879116670053</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.3923158838891041</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.39238134186379625</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.39244521413360189</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.39250754771249774</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.39256838768860547</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.39262777732179899</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.39268575813459705</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.3927423699989987</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.39279765121749932</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.39285163859900507</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.39290436753179847</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.39295587205089788</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.39300618490250372</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.39305533760470013</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.39310336050459682</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.39315028283240139</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.39319613275309706</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.39324093741410593</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.39328472299169448</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.39332751473410354</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.39336933700300136</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.39341021331209447</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.39345016636420382</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.39348921808650061</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.39352738966319833</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.39356470156820222</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.39360117359380098</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.39363682487999796</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.39367167394159708</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.3937057386936047</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.39373903647559416</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.39377158407600632</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.39380339775269846</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.39383449325589481</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.39386488584680279</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.39389459031760055</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.39392362100979739</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.39395199183110208</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.3939797162723977</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.39400680742389937</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.3940332779898057</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.3940591403030993</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.39408440633899744</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.39410908772889996</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.39413319577219852</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.39415674144880342</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.39417973543089602</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.39420218809320318</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.39422410952450093</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.3942455095369013</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.39426639767669514</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.39428678323219657</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.39430667524339924</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.39432608251131285</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.39434501360419461</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.39436347686729789</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.39438148042940213</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.39439903221020245</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.39441613992759983</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.39443281110349915</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.39444905307129829</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.39446487298130251</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.39448027780699135</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.39449527435010623</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.3945098692470026</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.39452406897329695</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.39453787984889743</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.39455130804320504</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.39456435957929159</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.39457704033900143</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.39458935606680257</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.39460131237420626</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.39461291474339077</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.39462416853200466</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.39463507897549732</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.39464565119210704</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.39465589018529101</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.39466580084790337</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.39467538796429835</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.3946846562150057</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.39469361017819438</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.39470225433350947</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.39471059306448808</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.3947186306616004</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.39472637132421085</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.39473381916398864</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.3947409782063005</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.39474785239390542</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.3947544455875942</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.394760761569799</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.39476680404600017</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.39477257664690057</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.39477808293069927</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.3947833263842</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.39478831042590912</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.3947930384069025</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.39479751361260185</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.39480173926529005</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.3948057185244096</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.39480945448958948</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.39481295020109997</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.39481620864179945</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.39481923273849873</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.39482202536341049</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.39482458933569831</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.39482692742200243</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.39482904233859983</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.394830936752399</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.39483261328169306</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.3948340744981067</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.39483532292689461</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.39483636104860409</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.39483719130009831</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.39483781607509627</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.39483823772590654</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.39483845856369726</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.39483848086010198</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.39483830684750387</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.39483793872028627</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.3948373786360122</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.39483662871519698</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.39483569104359617</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.39483456767149505</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.39483326061601076</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.3948317718602965</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.39483010335540314</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.39482825702069135</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.39482623474449952</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.39482403838420055</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.39482166976830513</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.39481913069539587</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.39481642293630159</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.39481354823340098</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.39481050830210052</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.39480730483090554</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.39480393948259973</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.39480041389379039</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.39479672967640056</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.39479288841749849</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.39478889168050557</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.39478474100489791</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.39478043790720108</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.39477598388160118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="123464320"/>
+        <c:axId val="141302016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="123464320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:t>Gray Level</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="141302016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141302016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" altLang="en-US">
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="en-US">
+                    <a:ea typeface="新細明體"/>
+                  </a:rPr>
+                  <a:t>Lightness</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00000_ ;[Red]\-0.00000\ " sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="123464320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74746417075224092"/>
+          <c:y val="0.52257217847769033"/>
+          <c:w val="0.22358540088149359"/>
           <c:h val="0.25115157480314959"/>
         </c:manualLayout>
       </c:layout>
@@ -12023,7 +14538,7 @@
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>𝐿</m:t>
+                      <m:t>L</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -12053,7 +14568,7 @@
                               <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
                                 <a:latin typeface="Cambria Math"/>
                               </a:rPr>
-                              <m:t>𝑉</m:t>
+                              <m:t>V</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -12110,7 +14625,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝐿</m:t>
+                      <m:t>L</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -12164,7 +14679,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑉</m:t>
+                              <m:t>V</m:t>
                             </m:r>
                           </m:e>
                         </m:d>
@@ -12223,7 +14738,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>𝐿</m:t>
+                      <m:t>L</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -12277,7 +14792,7 @@
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
-                              <m:t>𝑉</m:t>
+                              <m:t>V</m:t>
                             </m:r>
                             <m:r>
                               <a:rPr lang="en-US" altLang="zh-TW" sz="1100" i="1">
@@ -12691,11 +15206,43 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -12705,34 +15252,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -12886,7 +15433,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -12895,7 +15442,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -12904,7 +15451,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -12987,9 +15534,9 @@
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13006,7 +15553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -13023,7 +15570,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13040,7 +15587,7 @@
         <v>0.100001508502646</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13057,7 +15604,7 @@
         <v>0.100007961924701</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13074,7 +15621,7 @@
         <v>0.100021068668395</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13091,7 +15638,7 @@
         <v>0.100042023290513</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13108,7 +15655,7 @@
         <v>0.100071791675108</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13125,7 +15672,7 @@
         <v>0.100111201098467</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13142,7 +15689,7 @@
         <v>0.10016098350263899</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13159,7 +15706,7 @@
         <v>0.100221800257075</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13176,7 +15723,7 @@
         <v>0.100294257878176</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13193,7 +15740,7 @@
         <v>0.100378918732933</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13210,7 +15757,7 @@
         <v>0.100476308707241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13227,7 +15774,7 @@
         <v>0.100586922916458</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -13244,7 +15791,7 @@
         <v>0.10071123008982499</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -13261,7 +15808,7 @@
         <v>0.10084967602094901</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -13278,7 +15825,7 @@
         <v>0.10100268633935</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -13295,7 +15842,7 @@
         <v>0.10117066877529</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -13312,7 +15859,7 @@
         <v>0.101354015037863</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -13329,7 +15876,7 @@
         <v>0.10155310239224299</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -13346,7 +15893,7 @@
         <v>0.101768294999015</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -13363,7 +15910,7 @@
         <v>0.101999945062581</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -13380,7 +15927,7 @@
         <v>0.102248393824405</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -13397,7 +15944,7 @@
         <v>0.1025139724287</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -13414,7 +15961,7 @@
         <v>0.10279700268219601</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -13431,7 +15978,7 @@
         <v>0.10309779772512399</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -13448,7 +15995,7 @@
         <v>0.10341666262718301</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -13465,7 +16012,7 @@
         <v>0.10375389491962</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -13482,7 +16029,7 @@
         <v>0.104109785072538</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -13499,7 +16046,7 @@
         <v>0.104484616924945</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -13516,7 +16063,7 @@
         <v>0.104878668073785</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -13533,7 +16080,7 @@
         <v>0.105292210227185</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -13550,7 +16097,7 @@
         <v>0.10572550952630699</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -13567,7 +16114,7 @@
         <v>0.10617882683956301</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -13584,7 +16131,7 @@
         <v>0.106652418032351</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -13601,7 +16148,7 @@
         <v>0.107146534215064</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -13618,7 +16165,7 @@
         <v>0.10766142197171701</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -13635,7 +16182,7 @@
         <v>0.108197323571221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -13652,7 +16199,7 @@
         <v>0.108754477163093</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -13669,7 +16216,7 @@
         <v>0.109333116959124</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -13686,7 +16233,7 @@
         <v>0.109933473402386</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13703,7 +16250,7 @@
         <v>0.110555773324752</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13720,7 +16267,7 @@
         <v>0.111200240093987</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13737,7 +16284,7 @@
         <v>0.111867093751345</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13754,7 +16301,7 @@
         <v>0.11255655114050001</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13771,7 +16318,7 @@
         <v>0.11326882602854201</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13788,7 +16335,7 @@
         <v>0.114004129219711</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13805,7 +16352,7 @@
         <v>0.114762668662443</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13822,7 +16369,7 @@
         <v>0.11554464955028</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13839,7 +16386,7 @@
         <v>0.116350274417102</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13856,7 +16403,7 @@
         <v>0.11717974322712101</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13873,7 +16420,7 @@
         <v>0.118033253460041</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13890,7 +16437,7 @@
         <v>0.118911000191707</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13907,7 +16454,7 @@
         <v>0.119813176170596</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13924,7 +16471,7 @@
         <v>0.120739971890429</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -13941,7 +16488,7 @@
         <v>0.121691575659162</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -13958,7 +16505,7 @@
         <v>0.122668173664625</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -13975,7 +16522,7 @@
         <v>0.123669950037003</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -13992,7 +16539,7 @@
         <v>0.124697086908389</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14009,7 +16556,7 @@
         <v>0.12574976446958</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14026,7 +16573,7 @@
         <v>0.12682816102429401</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -14043,7 +16590,7 @@
         <v>0.127932453040975</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14060,7 +16607,7 @@
         <v>0.12906281520232099</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14077,7 +16624,7 @@
         <v>0.13021942045267401</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -14094,7 +16641,7 @@
         <v>0.13140244004340501</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -14111,7 +16658,7 @@
         <v>0.132612043576399</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -14128,7 +16675,7 @@
         <v>0.13384839904576101</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -14145,7 +16692,7 @@
         <v>0.135111672877822</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -14162,7 +16709,7 @@
         <v>0.13640202996956699</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -14179,7 +16726,7 @@
         <v>0.13771963372554599</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -14196,7 +16743,7 @@
         <v>0.13906464609336</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -14213,7 +16760,7 @@
         <v>0.1404372275978</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -14230,7 +16777,7 @@
         <v>0.141837537373698</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -14247,7 +16794,7 @@
         <v>0.143265733197569</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -14264,7 +16811,7 @@
         <v>0.14472197151810001</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -14281,7 +16828,7 @@
         <v>0.14620640748552999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -14298,7 +16845,7 @@
         <v>0.14771919498000599</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -14315,7 +16862,7 @@
         <v>0.14926048663893299</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -14332,7 +16879,7 @@
         <v>0.15083043388338299</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -14349,7 +16896,7 @@
         <v>0.15242918694360499</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -14366,7 +16913,7 @@
         <v>0.15405689488367899</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -14383,7 +16930,7 @@
         <v>0.15571370562534501</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -14400,7 +16947,7 @@
         <v>0.15739976597105801</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -14417,7 +16964,7 @@
         <v>0.159115221626287</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -14434,7 +16981,7 @@
         <v>0.16086021722111399</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -14451,7 +16998,7 @@
         <v>0.16263489633113601</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -14468,7 +17015,7 @@
         <v>0.16443940149772501</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -14485,7 +17032,7 @@
         <v>0.16627387424765899</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -14502,7 +17049,7 @@
         <v>0.168138455112155</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -14519,7 +17066,7 @@
         <v>0.17003328364532599</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -14536,7 +17083,7 @@
         <v>0.17195849844209701</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -14553,7 +17100,7 @@
         <v>0.17391423715557999</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -14570,7 +17117,7 @@
         <v>0.17590063651395399</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -14587,7 +17134,7 @@
         <v>0.17791783233685499</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -14604,7 +17151,7 @@
         <v>0.17996595955129699</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -14621,7 +17168,7 @@
         <v>0.18204515220715201</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -14638,7 +17185,7 @@
         <v>0.18415554349218599</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -14655,7 +17202,7 @@
         <v>0.186297265746695</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -14672,7 +17219,7 @@
         <v>0.18847045047772701</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -14689,7 +17236,7 @@
         <v>0.19067522837293599</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -14706,7 +17253,7 @@
         <v>0.19291172931404901</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -14723,7 +17270,7 @@
         <v>0.19518008238998899</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -14740,7 +17287,7 @@
         <v>0.19748041590964999</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -14757,7 +17304,7 @@
         <v>0.19981285741434099</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -14774,7 +17321,7 @@
         <v>0.20217753368990901</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -14791,7 +17338,7 @@
         <v>0.20457457077855701</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -14808,7 +17355,7 @@
         <v>0.20700409399036401</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -14825,7 +17372,7 @@
         <v>0.209466227914515</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -14842,7 +17389,7 @@
         <v>0.21196109643025399</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -14859,7 +17406,7 @@
         <v>0.214488822717575</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -14876,7 +17423,7 @@
         <v>0.21704952926764601</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -14893,7 +17440,7 @@
         <v>0.21964333789298801</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -14910,7 +17457,7 @@
         <v>0.22227036973740799</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -14927,7 +17474,7 @@
         <v>0.22493074528570201</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -14944,7 +17491,7 @@
         <v>0.22762458437312899</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -14961,7 +17508,7 @@
         <v>0.23035200619466401</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -14978,7 +17525,7 @@
         <v>0.23311312931404399</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -14995,7 +17542,7 @@
         <v>0.235908071672599</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -15012,7 +17559,7 @@
         <v>0.23873695059789601</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -15029,7 +17576,7 @@
         <v>0.24159988281218001</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -15046,7 +17593,7 @@
         <v>0.24449698444063001</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -15063,7 +17610,7 @@
         <v>0.24742837101943799</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -15080,7 +17627,7 @@
         <v>0.25039415750370603</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -15097,7 +17644,7 @@
         <v>0.25339445827517498</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -15114,7 +17661,7 @@
         <v>0.25642938714979102</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -15131,7 +17678,7 @@
         <v>0.25949905738510398</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -15148,7 +17695,7 @@
         <v>0.26260358168751602</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -15165,7 +17712,7 @@
         <v>0.26574307221937798</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -15182,7 +17729,7 @@
         <v>0.26891764060593198</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -15199,7 +17746,7 @@
         <v>0.27212739794211999</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -15216,7 +17763,7 @@
         <v>0.27537245479924799</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -15233,7 +17780,7 @@
         <v>0.27865292123151802</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -15250,7 +17797,7 @@
         <v>0.28196890678242398</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -15267,7 +17814,7 @@
         <v>0.28532052049102602</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -15284,7 +17831,7 @@
         <v>0.28870787089809502</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -15301,7 +17848,7 @@
         <v>0.29213106605214501</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -15318,7 +17865,7 @@
         <v>0.29559021351533199</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -15335,7 +17882,7 @@
         <v>0.299085420369258</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -15352,7 +17899,7 @@
         <v>0.30261679322064899</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -15369,7 +17916,7 @@
         <v>0.30618443820693197</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -15386,7 +17933,7 @@
         <v>0.30978846100169999</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -15403,7 +17950,7 @@
         <v>0.31342896682008597</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -15420,7 +17967,7 @@
         <v>0.31710606042402001</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -15437,7 +17984,7 @@
         <v>0.320819846127405</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -15454,7 +18001,7 @@
         <v>0.324570427801185</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -15471,7 +18018,7 @@
         <v>0.328357908878331</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -15488,7 +18035,7 @@
         <v>0.33218239235872599</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -15505,7 +18052,7 @@
         <v>0.33604398081397202</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -15522,7 +18069,7 @@
         <v>0.33994277639210002</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -15539,7 +18086,7 @@
         <v>0.34387888082221202</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -15556,7 +18103,7 @@
         <v>0.34785239541902202</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -15573,7 +18120,7 @@
         <v>0.35186342108733198</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -15590,7 +18137,7 @@
         <v>0.35591205832642497</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -15607,7 +18154,7 @@
         <v>0.35999840723437998</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -15624,7 +18171,7 @@
         <v>0.36412256751231897</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -15641,7 +18188,7 @@
         <v>0.36828463846856901</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -15658,7 +18205,7 @@
         <v>0.37248471902277303</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -15675,7 +18222,7 @@
         <v>0.37672290770991201</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -15692,7 +18239,7 @@
         <v>0.38099930268427001</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -15709,7 +18256,7 @@
         <v>0.38531400172333402</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -15726,7 +18273,7 @@
         <v>0.38966710223162299</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -15743,7 +18290,7 @@
         <v>0.39405870124446302</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -15760,7 +18307,7 @@
         <v>0.39848889543168797</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -15777,7 +18324,7 @@
         <v>0.40295778110129499</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -15794,7 +18341,7 @@
         <v>0.40746545420302899</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -15811,7 +18358,7 @@
         <v>0.41201201033191698</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -15828,7 +18375,7 @@
         <v>0.41659754473174299</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -15845,7 +18392,7 @@
         <v>0.42122215229846799</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -15862,7 +18409,7 @@
         <v>0.425885927583599</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -15879,7 +18426,7 @@
         <v>0.43058896479749798</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -15896,7 +18443,7 @@
         <v>0.43533135781265098</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -15913,7 +18460,7 @@
         <v>0.44011320016687699</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -15930,7 +18477,7 @@
         <v>0.44493458506649097</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -15947,7 +18494,7 @@
         <v>0.44979560538941799</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -15964,7 +18511,7 @@
         <v>0.454696353688263</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -15981,7 +18528,7 @@
         <v>0.45963692219332902</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -15998,7 +18545,7 @@
         <v>0.46461740281559399</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -16015,7 +18562,7 @@
         <v>0.469637887149643</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -16032,7 +18579,7 @@
         <v>0.474698466476555</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -16049,7 +18596,7 @@
         <v>0.47979923176674799</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -16066,7 +18613,7 @@
         <v>0.48494027368278297</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -16083,7 +18630,7 @@
         <v>0.49012168258212901</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -16100,7 +18647,7 @@
         <v>0.49534354851987999</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -16117,7 +18664,7 @@
         <v>0.50060596125144297</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -16134,7 +18681,7 @@
         <v>0.50590901023518198</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -16151,7 +18698,7 @@
         <v>0.51125278463502399</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -16168,7 +18715,7 @@
         <v>0.51663737332303095</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -16185,7 +18732,7 @@
         <v>0.52206286488192999</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -16202,7 +18749,7 @@
         <v>0.52752934760761605</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -16219,7 +18766,7 @@
         <v>0.53303690951161398</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -16236,7 +18783,7 @@
         <v>0.53858563832350603</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -16253,7 +18800,7 @@
         <v>0.54417562149332999</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -16270,7 +18817,7 @@
         <v>0.54980694619393999</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -16287,7 +18834,7 @@
         <v>0.55547969932333896</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -16304,7 +18851,7 @@
         <v>0.56119396750697603</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -16321,7 +18868,7 @@
         <v>0.56694983710001401</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -16338,7 +18885,7 @@
         <v>0.57274739418956799</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -16355,7 +18902,7 @@
         <v>0.57858672459691396</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -16372,7 +18919,7 @@
         <v>0.58446791387966301</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -16389,7 +18936,7 @@
         <v>0.59039104733391101</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -16406,7 +18953,7 @@
         <v>0.59635620999636396</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -16423,7 +18970,7 @@
         <v>0.60236348664642603</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -16440,7 +18987,7 @@
         <v>0.60841296180826698</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -16457,7 +19004,7 @@
         <v>0.61450471975286203</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -16474,7 +19021,7 @@
         <v>0.62063884450000095</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -16491,7 +19038,7 @@
         <v>0.62681541982028</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -16508,7 +19055,7 @@
         <v>0.63303452923705705</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -16525,7 +19072,7 @@
         <v>0.63929625602839502</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -16542,7 +19089,7 @@
         <v>0.64560068322896702</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -16559,7 +19106,7 @@
         <v>0.65194789363194605</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -16576,7 +19123,7 @@
         <v>0.658337969790873</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -16593,7 +19140,7 @@
         <v>0.66477099402148998</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -16610,7 +19157,7 @@
         <v>0.67124704840356497</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -16627,7 +19174,7 @@
         <v>0.67776621478268495</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -16644,7 +19191,7 @@
         <v>0.68432857477202602</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -16661,7 +19208,7 @@
         <v>0.69093420975411002</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -16678,7 +19225,7 @@
         <v>0.69758320088253001</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -16695,7 +19242,7 @@
         <v>0.70427562908366503</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -16712,7 +19259,7 @@
         <v>0.71101157505836299</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -16729,7 +19276,7 @@
         <v>0.71779111928361194</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -16746,7 +19293,7 @@
         <v>0.72461434201418995</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -16763,7 +19310,7 @@
         <v>0.73148132328429005</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -16780,7 +19327,7 @@
         <v>0.73839214290913002</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -16797,7 +19344,7 @@
         <v>0.74534688048654696</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -16814,7 +19361,7 @@
         <v>0.75234561539856604</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -16831,7 +19378,7 @@
         <v>0.75938842681295204</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -16848,7 +19395,7 @@
         <v>0.76647539368474704</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -16865,7 +19412,7 @@
         <v>0.77360659475778804</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -16882,7 +19429,7 @@
         <v>0.780782108566207</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -16899,7 +19446,7 @@
         <v>0.78800201343591003</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -16916,7 +19463,7 @@
         <v>0.79526638748605005</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -16933,7 +19480,7 @@
         <v>0.802575308630466</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -16950,7 +19497,7 @@
         <v>0.809928854579127</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -16967,7 +19514,7 @@
         <v>0.81732710283953802</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -16984,7 +19531,7 @@
         <v>0.82477013071814897</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -17001,7 +19548,7 @@
         <v>0.83225801532173305</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -17018,7 +19565,7 @@
         <v>0.83979083355875905</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -17035,7 +19582,7 @@
         <v>0.84736866214074902</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -17052,7 +19599,7 @@
         <v>0.854991577583609</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -17069,7 +19616,7 @@
         <v>0.86265965620896101</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -17086,7 +19633,7 @@
         <v>0.87037297414545101</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -17103,7 +19650,7 @@
         <v>0.87813160733004203</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -17120,7 +19667,7 @@
         <v>0.88593563150930099</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -17137,7 +19684,7 @@
         <v>0.89378512224065898</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -17154,7 +19701,7 @@
         <v>0.90168015489367404</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -17171,7 +19718,7 @@
         <v>0.90962080465126505</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -17188,7 +19735,7 @@
         <v>0.917607146510942</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -17205,7 +19752,7 @@
         <v>0.92563925528601998</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -17222,7 +19769,7 @@
         <v>0.93371720560681903</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -17239,7 +19786,7 @@
         <v>0.94184107192185795</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -17256,7 +19803,7 @@
         <v>0.95001092849902402</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -17273,7 +19820,7 @@
         <v>0.95822684942673897</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -17290,7 +19837,7 @@
         <v>0.96648890861511605</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -17307,7 +19854,7 @@
         <v>0.97479717979709202</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -17324,7 +19871,7 @@
         <v>0.98315173652955801</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -17341,7 +19888,7 @@
         <v>0.99155265219448097</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -17374,9 +19921,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17399,7 +19946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -17422,7 +19969,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17445,7 +19992,7 @@
         <v>0.10016744379374699</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17468,7 +20015,7 @@
         <v>0.10088377364183999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17491,7 +20038,7 @@
         <v>0.102338622191866</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17514,7 +20061,7 @@
         <v>0.10466458524696599</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17537,7 +20084,7 @@
         <v>0.107968875937044</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17560,7 +20107,7 @@
         <v>0.112343321929904</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17583,7 +20130,7 @@
         <v>0.117869168793026</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17606,7 +20153,7 @@
         <v>0.124619828535388</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17629,7 +20176,7 @@
         <v>0.13266262447756699</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17652,7 +20199,7 @@
         <v>0.142059979355593</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17675,7 +20222,7 @@
         <v>0.15287026650381</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17698,7 +20245,7 @@
         <v>0.16514844372690399</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17721,7 +20268,7 @@
         <v>0.17894653997068199</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -17744,7 +20291,7 @@
         <v>0.194314038325339</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -17767,7 +20314,7 @@
         <v>0.211298183667852</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17790,7 +20337,7 @@
         <v>0.22994423405726699</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -17813,7 +20360,7 @@
         <v>0.25029566920282698</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -17836,7 +20383,7 @@
         <v>0.27239436553901802</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -17859,7 +20406,7 @@
         <v>0.29628074489072098</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -17882,7 +20429,7 @@
         <v>0.32199390194659999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -17905,7 +20452,7 @@
         <v>0.34957171450904501</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17928,7 +20475,7 @@
         <v>0.379050939585796</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -17951,7 +20498,7 @@
         <v>0.41046729772378399</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -17974,7 +20521,7 @@
         <v>0.44385554748877298</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -17997,7 +20544,7 @@
         <v>0.47924955161733701</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18020,7 +20567,7 @@
         <v>0.51668233607785496</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -18043,7 +20590,7 @@
         <v>0.55618614305175296</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -18066,7 +20613,7 @@
         <v>0.59779247866889496</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -18089,7 +20636,7 @@
         <v>0.641532156190184</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -18112,7 +20659,7 @@
         <v>0.68743533521754097</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -18135,7 +20682,7 @@
         <v>0.73553155742015597</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -18158,7 +20705,7 @@
         <v>0.78584977919155397</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -18181,7 +20728,7 @@
         <v>0.83841840159097403</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -18204,7 +20751,7 @@
         <v>0.89326529787214604</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -18227,7 +20774,7 @@
         <v>0.95041783886060704</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -18250,7 +20797,7 @@
         <v>1.0099029164056299</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -18273,7 +20820,7 @@
         <v>1.07174696510338</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -18296,7 +20843,7 @@
         <v>1.13597598246281</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -18319,7 +20866,7 @@
         <v>1.2026155476649101</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -18342,7 +20889,7 @@
         <v>1.2716908390475199</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -18365,7 +20912,7 @@
         <v>1.34322665043258</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -18388,7 +20935,7 @@
         <v>1.4172474063993601</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -18411,7 +20958,7 @@
         <v>1.4937771765955601</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -18434,7 +20981,7 @@
         <v>1.5728396891682701</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -18457,7 +21004,7 @@
         <v>1.65445834338797</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -18480,7 +21027,7 @@
         <v>1.73865622153126</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -18503,7 +21050,7 @@
         <v>1.82545610008118</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -18526,7 +21073,7 @@
         <v>1.91488046029832</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -18549,7 +21096,7 @@
         <v>2.0069514982105101</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -18572,7 +21119,7 @@
         <v>2.1016911340645898</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -18595,7 +21142,7 @@
         <v>2.1991210212794901</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -18618,7 +21165,7 @@
         <v>2.29926255493623</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -18641,7 +21188,7 @@
         <v>2.4021368798376401</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -18664,7 +21211,7 @@
         <v>2.5077648981670499</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -18687,7 +21234,7 @@
         <v>2.6161672767734201</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -18710,7 +21257,7 @@
         <v>2.72736445410741</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -18733,7 +21280,7 @@
         <v>2.84137664683128</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -18756,7 +21303,7 @@
         <v>2.9582238561234</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -18779,7 +21326,7 @@
         <v>3.0779258736966502</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -18802,7 +21349,7 @@
         <v>3.2005022875482898</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -18825,7 +21372,7 @@
         <v>3.3259724874576699</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -18848,7 +21395,7 @@
         <v>3.4543556702468501</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -18871,7 +21418,7 @@
         <v>3.5856708448179702</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -18894,7 +21441,7 @@
         <v>3.71993683698039</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -18917,7 +21464,7 @@
         <v>3.8571722940794899</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -18940,7 +21487,7 @@
         <v>3.9973956894382598</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -18963,7 +21510,7 @@
         <v>4.1406253266219899</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -18986,7 +21533,7 @@
         <v>4.2868793435356496</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -19009,7 +21556,7 @@
         <v>4.4361757163630404</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -19032,7 +21579,7 @@
         <v>4.5885322633558303</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -19055,7 +21602,7 @@
         <v>4.7439666484804901</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -19078,7 +21625,7 @@
         <v>4.9024963849302496</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -19101,7 +21648,7 @@
         <v>5.0641388385091002</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -19124,7 +21671,7 @@
         <v>5.2289112308938597</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -19147,7 +21694,7 @@
         <v>5.3968306427807402</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -19170,7 +21717,7 @@
         <v>5.5679140169216099</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -19193,7 +21740,7 @@
         <v>5.7421781610555103</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -19216,7 +21763,7 @@
         <v>5.9196397507401803</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -19239,7 +21786,7 @@
         <v>6.1003153320883898</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -19262,7 +21809,7 @@
         <v>6.2842213244133598</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -19285,7 +21832,7 @@
         <v>6.4713740227874297</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -19308,7 +21855,7 @@
         <v>6.6617896005179196</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -19331,7 +21878,7 @@
         <v>6.8554841115437002</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -19354,7 +21901,7 @@
         <v>7.0524734927561301</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -19377,7 +21924,7 @@
         <v>7.2527735662475203</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -19400,7 +21947,7 @@
         <v>7.4564000414902001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -19423,7 +21970,7 @@
         <v>7.6633685174492099</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -19446,7 +21993,7 @@
         <v>7.8736944846312902</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -19469,7 +22016,7 @@
         <v>8.0873933270728493</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -19492,7 +22039,7 @@
         <v>8.3044803242694396</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -19515,7 +22062,7 @@
         <v>8.5249706530489302</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -19538,7 +22085,7 @@
         <v>8.7488793893909005</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -19561,7 +22108,7 @@
         <v>8.9762215101940299</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -19584,7 +22131,7 @@
         <v>9.2070118949939008</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -19607,7 +22154,7 @@
         <v>9.4412653276327205</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -19630,7 +22177,7 @@
         <v>9.6789964978831495</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -19653,7 +22200,7 @@
         <v>9.9202200030277901</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -19676,7 +22223,7 @@
         <v>10.1649503493959</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -19699,7 +22246,7 @@
         <v>10.413201953859399</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -19722,7 +22269,7 @@
         <v>10.6649891452888</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -19745,7 +22292,7 @@
         <v>10.920326165971099</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -19768,7 +22315,7 @@
         <v>11.1792271729918</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -19791,7 +22338,7 @@
         <v>11.441706239579901</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -19814,7 +22361,7 @@
         <v>11.7077773564198</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -19837,7 +22384,7 @@
         <v>11.977454432930401</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -19860,7 +22407,7 @@
         <v>12.2507512985111</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -19883,7 +22430,7 @@
         <v>12.5276817037582</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -19906,7 +22453,7 @@
         <v>12.8082593216508</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -19929,7 +22476,7 @@
         <v>13.0924977487087</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -19952,7 +22499,7 @@
         <v>13.3804105061217</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -19975,7 +22522,7 @@
         <v>13.672011040852301</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -19998,7 +22545,7 @@
         <v>13.967312726712899</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -20021,7 +22568,7 @@
         <v>14.2663288654173</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -20044,7 +22591,7 @@
         <v>14.5690726876078</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -20067,7 +22614,7 @@
         <v>14.8755573538589</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -20090,7 +22637,7 @@
         <v>15.1857959556585</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -20113,7 +22660,7 @@
         <v>15.499801516366499</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -20136,7 +22683,7 @@
         <v>15.817586992152</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -20159,7 +22706,7 @@
         <v>16.139165272909999</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -20182,7 +22729,7 @@
         <v>16.464549183157601</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -20205,7 +22752,7 @@
         <v>16.793751482911301</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -20228,7 +22775,7 @@
         <v>17.126784868544402</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -20251,7 +22798,7 @@
         <v>17.463661973626799</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -20274,7 +22821,7 @@
         <v>17.804395369746501</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -20297,7 +22844,7 @@
         <v>18.1489975673143</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -20320,7 +22867,7 @@
         <v>18.497481016350999</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -20343,7 +22890,7 @@
         <v>18.849858107258399</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -20366,7 +22913,7 @@
         <v>19.2061411715753</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -20389,7 +22936,7 @@
         <v>19.5663424827166</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -20412,7 +22959,7 @@
         <v>19.930474256698499</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -20435,7 +22982,7 @@
         <v>20.298548652849</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -20458,7 +23005,7 @@
         <v>20.670577774503801</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -20481,7 +23028,7 @@
         <v>21.046573669688598</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -20504,7 +23051,7 @@
         <v>21.426548331788101</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -20527,7 +23074,7 @@
         <v>21.810513700201799</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -20550,7 +23097,7 @@
         <v>22.1984816609876</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -20573,7 +23120,7 @@
         <v>22.590464047492102</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -20596,7 +23143,7 @@
         <v>22.986472640969399</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -20619,7 +23166,7 @@
         <v>23.386519171188699</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -20642,7 +23189,7 @@
         <v>23.790615317029498</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -20665,7 +23212,7 @@
         <v>24.198772707066201</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -20688,7 +23235,7 @@
         <v>24.6110029201419</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -20711,7 +23258,7 @@
         <v>25.027317485931601</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -20734,7 +23281,7 @@
         <v>25.4477278854948</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -20757,7 +23304,7 @@
         <v>25.872245551818601</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -20780,7 +23327,7 @@
         <v>26.300881870350899</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -20803,7 +23350,7 @@
         <v>26.733648179523101</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -20826,7 +23373,7 @@
         <v>27.170555771265501</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -20849,7 +23396,7 @@
         <v>27.611615891511399</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -20872,7 +23419,7 @@
         <v>28.0568397406938</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -20895,7 +23442,7 @@
         <v>28.506238474233101</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -20918,7 +23465,7 @@
         <v>28.959823203016199</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -20941,7 +23488,7 @@
         <v>29.4176049938674</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -20964,7 +23511,7 @@
         <v>29.8795948700112</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -20987,7 +23534,7 @@
         <v>30.345803811527901</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -21010,7 +23557,7 @@
         <v>30.8162427558002</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -21033,7 +23580,7 @@
         <v>31.290922597954001</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -21056,7 +23603,7 @@
         <v>31.769854191290001</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -21079,7 +23626,7 @@
         <v>32.253048347710198</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -21102,7 +23649,7 @@
         <v>32.740515838135401</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -21125,7 +23672,7 @@
         <v>33.2322673929174</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -21148,7 +23695,7 @@
         <v>33.728313702243703</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -21171,7 +23718,7 @@
         <v>34.228665416536202</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -21194,7 +23741,7 @@
         <v>34.733333146842803</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -21217,7 +23764,7 @@
         <v>35.242327465223497</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -21240,7 +23787,7 @@
         <v>35.755658905129998</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -21263,7 +23810,7 @@
         <v>36.273337961779497</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -21286,7 +23833,7 @@
         <v>36.7953750925222</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -21309,7 +23856,7 @@
         <v>37.321780717204298</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -21332,7 +23879,7 @@
         <v>37.852565218523402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -21355,7 +23902,7 @@
         <v>38.387738942380501</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -21378,7 +23925,7 @@
         <v>38.927312198225501</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -21401,7 +23948,7 @@
         <v>39.471295259397202</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -21424,7 +23971,7 @@
         <v>40.019698363459497</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -21447,7 +23994,7 @@
         <v>40.572531712530903</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -21470,7 +24017,7 @@
         <v>41.129805473610404</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -21493,7 +24040,7 @@
         <v>41.691529778897603</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -21516,7 +24063,7 @@
         <v>42.257714726109</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -21539,7 +24086,7 @@
         <v>42.828370378788897</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -21562,7 +24109,7 @@
         <v>43.403506766616303</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -21585,7 +24132,7 @@
         <v>43.9831338857067</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -21608,7 +24155,7 @@
         <v>44.567261698910201</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -21631,7 +24178,7 @@
         <v>45.155900136105203</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -21654,7 +24201,7 @@
         <v>45.749059094487698</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -21677,7 +24224,7 @@
         <v>46.346748438856402</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -21700,7 +24247,7 @@
         <v>46.948978001894197</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -21723,7 +24270,7 @@
         <v>47.555757584445402</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -21746,7 +24293,7 @@
         <v>48.167096955789198</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -21769,7 +24316,7 @@
         <v>48.783005853909202</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -21792,7 +24339,7 @@
         <v>49.403493985759702</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -21815,7 +24362,7 @@
         <v>50.028571027527398</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -21838,7 +24385,7 @@
         <v>50.658246624890602</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -21861,7 +24408,7 @@
         <v>51.292530393274298</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -21884,7 +24431,7 @@
         <v>51.931431918101502</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -21907,7 +24454,7 @@
         <v>52.574960755042099</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -21930,7 +24477,7 @@
         <v>53.223126430257501</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -21953,7 +24500,7 @@
         <v>53.875938440642599</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -21976,7 +24523,7 @@
         <v>54.533406254064097</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -21999,7 +24546,7 @@
         <v>55.195539309596398</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -22022,7 +24569,7 @@
         <v>55.862347017753301</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -22045,7 +24592,7 @@
         <v>56.5338387607177</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -22068,7 +24615,7 @@
         <v>57.210023892567698</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -22091,7 +24638,7 @@
         <v>57.890911739500098</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -22114,7 +24661,7 @@
         <v>58.576511600050999</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -22137,7 +24684,7 @@
         <v>59.266832745313401</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -22160,7 +24707,7 @@
         <v>59.9618844191519</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -22183,7 +24730,7 @@
         <v>60.661675838415299</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -22206,7 +24753,7 @@
         <v>61.366216193146002</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -22229,7 +24776,7 @@
         <v>62.0755146467869</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -22252,7 +24799,7 @@
         <v>62.789580336385399</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -22275,7 +24822,7 @@
         <v>63.508422372795799</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -22298,7 +24845,7 @@
         <v>64.232049840878105</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -22321,7 +24868,7 @@
         <v>64.960471799694901</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -22344,7 +24891,7 @@
         <v>65.693697282706196</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -22367,7 +24914,7 @@
         <v>66.431735297960799</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -22390,7 +24937,7 @@
         <v>67.1745948282868</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -22413,7 +24960,7 @@
         <v>67.922284831478294</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -22436,7 +24983,7 @@
         <v>68.674814240480998</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -22459,7 +25006,7 @@
         <v>69.432191963575093</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -22482,7 +25029,7 @@
         <v>70.194426884556194</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -22505,7 +25052,7 @@
         <v>70.9615278629134</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -22528,7 +25075,7 @@
         <v>71.733503734006803</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -22551,7 +25098,7 @@
         <v>72.510363309240802</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -22574,7 +25121,7 @@
         <v>73.292115376237604</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -22597,7 +25144,7 @@
         <v>74.078768699006901</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -22620,7 +25167,7 @@
         <v>74.870332018114496</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -22643,7 +25190,7 @@
         <v>75.666814050848899</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -22666,7 +25213,7 @@
         <v>76.468223491386098</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -22689,7 +25236,7 @@
         <v>77.274569010951495</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -22712,7 +25259,7 @@
         <v>78.085859257981795</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -22735,7 +25282,7 @@
         <v>78.902102858283101</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -22758,7 +25305,7 @@
         <v>79.723308415188797</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -22781,7 +25328,7 @@
         <v>80.549484509714503</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -22804,7 +25351,7 @@
         <v>81.380639700712294</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -22827,7 +25374,7 @@
         <v>82.216782525022296</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -22850,7 +25397,7 @@
         <v>83.057921497623099</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -22873,7 +25420,7 @@
         <v>83.904065111780596</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -22896,7 +25443,7 @@
         <v>84.755221839194704</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -22919,7 +25466,7 @@
         <v>85.611400130145</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -22942,7 +25489,7 @@
         <v>86.472608413634703</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -22965,7 +25512,7 @@
         <v>87.338855097532402</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -22988,7 +25535,7 @@
         <v>88.210148568713194</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -23011,7 +25558,7 @@
         <v>89.0864971931978</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -23034,7 +25581,7 @@
         <v>89.967909316290402</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -23057,7 +25604,7 @@
         <v>90.854393262714595</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -23080,7 +25627,7 @@
         <v>91.745957336748205</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -23103,7 +25650,7 @@
         <v>92.642609822357002</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -23126,7 +25673,7 @@
         <v>93.544358983326305</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -23149,7 +25696,7 @@
         <v>94.451213063391606</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -23172,7 +25719,7 @@
         <v>95.363180286368106</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -23195,7 +25742,7 @@
         <v>96.2802688562779</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -23218,7 +25765,7 @@
         <v>97.202486957477205</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -23241,7 +25788,7 @@
         <v>98.129842754780995</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -23264,7 +25811,7 @@
         <v>99.062344393587395</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -23298,17 +25845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23331,7 +25878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -23345,7 +25892,7 @@
         <v>5.3721027837085096</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -23371,7 +25918,7 @@
         <v>3.8181570020601185E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -23397,7 +25944,7 @@
         <v>1.6292857706620367E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -23423,7 +25970,7 @@
         <v>3.2886630246779625E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -23449,7 +25996,7 @@
         <v>5.2023697672730407E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -23475,7 +26022,7 @@
         <v>7.2773892037679921E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -23501,7 +26048,7 @@
         <v>9.4397772576630068E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -23527,7 +26074,7 @@
         <v>0.11626803015879972</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -23553,7 +26100,7 @@
         <v>0.13785807943426054</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -23579,7 +26126,7 @@
         <v>0.15874544798374934</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -23605,7 +26152,7 @@
         <v>0.17861365560770004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -23631,7 +26178,7 @@
         <v>0.19724759740647002</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -23657,7 +26204,7 @@
         <v>0.21452246033171019</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -23683,7 +26230,7 @@
         <v>0.23038837307148974</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -23709,7 +26256,7 @@
         <v>0.24485346910888062</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -23735,7 +26282,7 @@
         <v>0.25796759089296994</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -23761,7 +26308,7 @@
         <v>0.26980806059785944</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -23787,7 +26334,7 @@
         <v>0.28046816450483014</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -23813,7 +26360,7 @@
         <v>0.29004841837798079</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -23839,7 +26386,7 @@
         <v>0.29865033308425026</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -23865,7 +26412,7 @@
         <v>0.30637224245306882</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -23891,7 +26438,7 @@
         <v>0.31330672628267031</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -23917,7 +26464,7 @@
         <v>0.31953920369899969</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -23943,7 +26490,7 @@
         <v>0.32514734486043118</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -23969,7 +26516,7 @@
         <v>0.33020102729766876</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -23995,7 +26542,7 @@
         <v>0.33476263409960083</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -24021,7 +26568,7 @@
         <v>0.33888754963609991</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -24047,7 +26594,7 @@
         <v>0.34262475386729996</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -24073,7 +26620,7 @@
         <v>0.34601744995019956</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -24099,7 +26646,7 @@
         <v>0.34910368396569957</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -24125,7 +26672,7 @@
         <v>0.35191693235400123</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -24151,7 +26698,7 @@
         <v>0.3544866439726988</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -24177,7 +26724,7 @@
         <v>0.35683873110740016</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -24203,7 +26750,7 @@
         <v>0.35899600845599977</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -24229,7 +26776,7 @@
         <v>0.36097858192680121</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -24255,7 +26802,7 @@
         <v>0.36280419066650005</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -24281,7 +26828,7 @@
         <v>0.3644885064872998</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -24307,7 +26854,7 @@
         <v>0.36604539511020029</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -24333,7 +26880,7 @@
         <v>0.36748714357019985</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -24359,7 +26906,7 @@
         <v>0.36882465787680019</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -24385,7 +26932,7 @@
         <v>0.37006763468719939</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -24411,7 +26958,7 @@
         <v>0.37122471036760096</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -24437,7 +26984,7 @@
         <v>0.37230359044059824</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -24463,7 +27010,7 @@
         <v>0.37331116205379899</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -24489,7 +27036,7 @@
         <v>0.37425359176470252</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -24515,7 +27062,7 @@
         <v>0.37513641064579772</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -24541,7 +27088,7 @@
         <v>0.37596458842820013</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -24567,7 +27114,7 @@
         <v>0.37674259818270173</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -24593,7 +27140,7 @@
         <v>0.37747447281589785</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -24619,7 +27166,7 @@
         <v>0.37816385449020018</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -24645,7 +27192,7 @@
         <v>0.37881403791700308</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -24671,7 +27218,7 @@
         <v>0.37942800833869939</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -24697,7 +27244,7 @@
         <v>0.38000847490589962</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -24723,7 +27270,7 @@
         <v>0.38055790005019929</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -24749,7 +27296,7 @@
         <v>0.38107852537769915</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -24775,7 +27322,7 @@
         <v>0.38157239452809932</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -24801,7 +27348,7 @@
         <v>0.38204137339010202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -24827,7 +27374,7 @@
         <v>0.38248716800449856</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -24853,7 +27400,7 @@
         <v>0.38291134044580133</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -24879,7 +27426,7 @@
         <v>0.38331532293240045</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -24905,7 +27452,7 @@
         <v>0.38370043038129964</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -24931,7 +27478,7 @@
         <v>0.38406787159690126</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -24957,7 +27504,7 @@
         <v>0.38441875925689928</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -24983,7 +27530,7 @@
         <v>0.38475411883799993</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -25009,7 +27556,7 @@
         <v>0.38507489660440086</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -25035,7 +27582,7 @@
         <v>0.38538196677119885</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -25061,7 +27608,7 @@
         <v>0.38567613793169997</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -25087,7 +27634,7 @@
         <v>0.38595815883730111</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -25113,7 +27660,7 @@
         <v>0.38622872359949767</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -25139,7 +27686,7 @@
         <v>0.38648847637800188</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -25165,7 +27712,7 @@
         <v>0.38673801561309773</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -25191,7 +27738,7 @@
         <v>0.38697789784919934</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -25217,7 +27764,7 @@
         <v>0.38720864119520115</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -25243,7 +27790,7 @@
         <v>0.38743072845960214</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -25269,7 +27816,7 @@
         <v>0.38764460999369987</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -25295,7 +27842,7 @@
         <v>0.38785070627349683</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -25321,7 +27868,7 @@
         <v>0.38804941024800144</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -25347,7 +27894,7 @@
         <v>0.38824108947600067</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -25373,7 +27920,7 @@
         <v>0.38842608807360079</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -25399,7 +27946,7 @@
         <v>0.38860472849079741</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -25425,7 +27972,7 @@
         <v>0.38877731313420227</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -25451,7 +27998,7 @@
         <v>0.38894412584999927</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -25477,7 +28024,7 @@
         <v>0.38910543328210068</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -25503,7 +28050,7 @@
         <v>0.38926148611520262</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -25529,7 +28076,7 @@
         <v>0.38941252021609785</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -25555,7 +28102,7 @@
         <v>0.38955875768019865</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -25581,7 +28128,7 @@
         <v>0.38970040779319959</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -25607,7 +28154,7 @@
         <v>0.38983766791660202</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -25633,7 +28180,7 @@
         <v>0.38997072430159818</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -25659,7 +28206,7 @@
         <v>0.39009975283980225</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -25685,7 +28232,7 @@
         <v>0.39022491975480023</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -25711,7 +28258,7 @@
         <v>0.3903463822420008</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -25737,7 +28284,7 @@
         <v>0.39046428905719921</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -25763,7 +28310,7 @@
         <v>0.39057878106410016</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -25789,7 +28336,7 @@
         <v>0.39068999173729679</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -25815,7 +28362,7 @@
         <v>0.3907980476316979</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -25841,7 +28388,7 @@
         <v>0.39090306881430337</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -25867,7 +28414,7 @@
         <v>0.39100516926770013</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -25893,7 +28440,7 @@
         <v>0.39110445726220178</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -25919,7 +28466,7 @@
         <v>0.39120103570299847</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -25945,7 +28492,7 @@
         <v>0.39129500245240223</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -25971,7 +28518,7 @@
         <v>0.3913864506302005</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -25997,7 +28544,7 @@
         <v>0.39147546889189755</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -26023,7 +28570,7 @@
         <v>0.39156214169020132</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -26049,7 +28596,7 @@
         <v>0.39164654951599687</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -26075,7 +28622,7 @@
         <v>0.39172876912630272</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -26101,7 +28648,7 @@
         <v>0.39180887375430018</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -26127,7 +28674,7 @@
         <v>0.39188693330729762</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -26153,7 +28700,7 @@
         <v>0.39196301455130111</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -26179,7 +28726,7 @@
         <v>0.3920371812832002</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -26205,7 +28752,7 @@
         <v>0.39210949449289956</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -26231,7 +28778,7 @@
         <v>0.39218001251409618</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -26257,7 +28804,7 @@
         <v>0.39224879116670053</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -26283,7 +28830,7 @@
         <v>0.3923158838891041</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -26309,7 +28856,7 @@
         <v>0.39238134186379625</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -26335,7 +28882,7 @@
         <v>0.39244521413360189</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -26361,7 +28908,7 @@
         <v>0.39250754771249774</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -26387,7 +28934,7 @@
         <v>0.39256838768860547</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -26413,7 +28960,7 @@
         <v>0.39262777732179899</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -26439,7 +28986,7 @@
         <v>0.39268575813459705</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -26465,7 +29012,7 @@
         <v>0.3927423699989987</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -26491,7 +29038,7 @@
         <v>0.39279765121749932</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -26517,7 +29064,7 @@
         <v>0.39285163859900507</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -26543,7 +29090,7 @@
         <v>0.39290436753179847</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -26569,7 +29116,7 @@
         <v>0.39295587205089788</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -26595,7 +29142,7 @@
         <v>0.39300618490250372</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -26621,7 +29168,7 @@
         <v>0.39305533760470013</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -26647,7 +29194,7 @@
         <v>0.39310336050459682</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -26673,7 +29220,7 @@
         <v>0.39315028283240139</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -26699,7 +29246,7 @@
         <v>0.39319613275309706</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -26725,7 +29272,7 @@
         <v>0.39324093741410593</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -26751,7 +29298,7 @@
         <v>0.39328472299169448</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -26777,7 +29324,7 @@
         <v>0.39332751473410354</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -26803,7 +29350,7 @@
         <v>0.39336933700300136</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -26829,7 +29376,7 @@
         <v>0.39341021331209447</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -26855,7 +29402,7 @@
         <v>0.39345016636420382</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -26881,7 +29428,7 @@
         <v>0.39348921808650061</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -26907,7 +29454,7 @@
         <v>0.39352738966319833</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -26933,7 +29480,7 @@
         <v>0.39356470156820222</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -26959,7 +29506,7 @@
         <v>0.39360117359380098</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -26985,7 +29532,7 @@
         <v>0.39363682487999796</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -27011,7 +29558,7 @@
         <v>0.39367167394159708</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -27037,7 +29584,7 @@
         <v>0.3937057386936047</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -27063,7 +29610,7 @@
         <v>0.39373903647559416</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -27089,7 +29636,7 @@
         <v>0.39377158407600632</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -27115,7 +29662,7 @@
         <v>0.39380339775269846</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -27141,7 +29688,7 @@
         <v>0.39383449325589481</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -27167,7 +29714,7 @@
         <v>0.39386488584680279</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -27193,7 +29740,7 @@
         <v>0.39389459031760055</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -27219,7 +29766,7 @@
         <v>0.39392362100979739</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -27245,7 +29792,7 @@
         <v>0.39395199183110208</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -27271,7 +29818,7 @@
         <v>0.3939797162723977</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -27297,7 +29844,7 @@
         <v>0.39400680742389937</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -27323,7 +29870,7 @@
         <v>0.3940332779898057</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -27349,7 +29896,7 @@
         <v>0.3940591403030993</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -27375,7 +29922,7 @@
         <v>0.39408440633899744</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -27401,7 +29948,7 @@
         <v>0.39410908772889996</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -27427,7 +29974,7 @@
         <v>0.39413319577219852</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -27453,7 +30000,7 @@
         <v>0.39415674144880342</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -27479,7 +30026,7 @@
         <v>0.39417973543089602</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -27505,7 +30052,7 @@
         <v>0.39420218809320318</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -27531,7 +30078,7 @@
         <v>0.39422410952450093</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -27557,7 +30104,7 @@
         <v>0.3942455095369013</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -27583,7 +30130,7 @@
         <v>0.39426639767669514</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -27609,7 +30156,7 @@
         <v>0.39428678323219657</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -27635,7 +30182,7 @@
         <v>0.39430667524339924</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -27661,7 +30208,7 @@
         <v>0.39432608251131285</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -27687,7 +30234,7 @@
         <v>0.39434501360419461</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -27713,7 +30260,7 @@
         <v>0.39436347686729789</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -27739,7 +30286,7 @@
         <v>0.39438148042940213</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -27765,7 +30312,7 @@
         <v>0.39439903221020245</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -27791,7 +30338,7 @@
         <v>0.39441613992759983</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -27817,7 +30364,7 @@
         <v>0.39443281110349915</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -27843,7 +30390,7 @@
         <v>0.39444905307129829</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -27869,7 +30416,7 @@
         <v>0.39446487298130251</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -27895,7 +30442,7 @@
         <v>0.39448027780699135</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -27921,7 +30468,7 @@
         <v>0.39449527435010623</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -27947,7 +30494,7 @@
         <v>0.3945098692470026</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -27973,7 +30520,7 @@
         <v>0.39452406897329695</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -27999,7 +30546,7 @@
         <v>0.39453787984889743</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -28025,7 +30572,7 @@
         <v>0.39455130804320504</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -28051,7 +30598,7 @@
         <v>0.39456435957929159</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -28077,7 +30624,7 @@
         <v>0.39457704033900143</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -28103,7 +30650,7 @@
         <v>0.39458935606680257</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -28129,7 +30676,7 @@
         <v>0.39460131237420626</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -28155,7 +30702,7 @@
         <v>0.39461291474339077</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -28181,7 +30728,7 @@
         <v>0.39462416853200466</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -28207,7 +30754,7 @@
         <v>0.39463507897549732</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -28233,7 +30780,7 @@
         <v>0.39464565119210704</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -28259,7 +30806,7 @@
         <v>0.39465589018529101</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -28285,7 +30832,7 @@
         <v>0.39466580084790337</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -28311,7 +30858,7 @@
         <v>0.39467538796429835</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -28337,7 +30884,7 @@
         <v>0.3946846562150057</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -28363,7 +30910,7 @@
         <v>0.39469361017819438</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -28389,7 +30936,7 @@
         <v>0.39470225433350947</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -28415,7 +30962,7 @@
         <v>0.39471059306448808</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -28441,7 +30988,7 @@
         <v>0.3947186306616004</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -28467,7 +31014,7 @@
         <v>0.39472637132421085</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -28493,7 +31040,7 @@
         <v>0.39473381916398864</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -28519,7 +31066,7 @@
         <v>0.3947409782063005</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -28545,7 +31092,7 @@
         <v>0.39474785239390542</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -28571,7 +31118,7 @@
         <v>0.3947544455875942</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -28597,7 +31144,7 @@
         <v>0.394760761569799</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -28623,7 +31170,7 @@
         <v>0.39476680404600017</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -28649,7 +31196,7 @@
         <v>0.39477257664690057</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -28675,7 +31222,7 @@
         <v>0.39477808293069927</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -28701,7 +31248,7 @@
         <v>0.3947833263842</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -28727,7 +31274,7 @@
         <v>0.39478831042590912</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -28753,7 +31300,7 @@
         <v>0.3947930384069025</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -28779,7 +31326,7 @@
         <v>0.39479751361260185</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -28805,7 +31352,7 @@
         <v>0.39480173926529005</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -28831,7 +31378,7 @@
         <v>0.3948057185244096</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -28857,7 +31404,7 @@
         <v>0.39480945448958948</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -28883,7 +31430,7 @@
         <v>0.39481295020109997</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -28909,7 +31456,7 @@
         <v>0.39481620864179945</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -28935,7 +31482,7 @@
         <v>0.39481923273849873</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -28961,7 +31508,7 @@
         <v>0.39482202536341049</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -28987,7 +31534,7 @@
         <v>0.39482458933569831</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -29013,7 +31560,7 @@
         <v>0.39482692742200243</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -29039,7 +31586,7 @@
         <v>0.39482904233859983</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -29065,7 +31612,7 @@
         <v>0.394830936752399</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -29091,7 +31638,7 @@
         <v>0.39483261328169306</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -29117,7 +31664,7 @@
         <v>0.3948340744981067</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -29143,7 +31690,7 @@
         <v>0.39483532292689461</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -29169,7 +31716,7 @@
         <v>0.39483636104860409</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -29195,7 +31742,7 @@
         <v>0.39483719130009831</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -29221,7 +31768,7 @@
         <v>0.39483781607509627</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -29247,7 +31794,7 @@
         <v>0.39483823772590654</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -29273,7 +31820,7 @@
         <v>0.39483845856369726</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -29299,7 +31846,7 @@
         <v>0.39483848086010198</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -29325,7 +31872,7 @@
         <v>0.39483830684750387</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -29351,7 +31898,7 @@
         <v>0.39483793872028627</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -29377,7 +31924,7 @@
         <v>0.3948373786360122</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -29403,7 +31950,7 @@
         <v>0.39483662871519698</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -29429,7 +31976,7 @@
         <v>0.39483569104359617</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -29455,7 +32002,7 @@
         <v>0.39483456767149505</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -29481,7 +32028,7 @@
         <v>0.39483326061601076</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -29507,7 +32054,7 @@
         <v>0.3948317718602965</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -29533,7 +32080,7 @@
         <v>0.39483010335540314</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -29559,7 +32106,7 @@
         <v>0.39482825702069135</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -29585,7 +32132,7 @@
         <v>0.39482623474449952</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -29611,7 +32158,7 @@
         <v>0.39482403838420055</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -29637,7 +32184,7 @@
         <v>0.39482166976830513</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -29663,7 +32210,7 @@
         <v>0.39481913069539587</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -29689,7 +32236,7 @@
         <v>0.39481642293630159</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -29715,7 +32262,7 @@
         <v>0.39481354823340098</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -29741,7 +32288,7 @@
         <v>0.39481050830210052</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -29767,7 +32314,7 @@
         <v>0.39480730483090554</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -29793,7 +32340,7 @@
         <v>0.39480393948259973</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -29819,7 +32366,7 @@
         <v>0.39480041389379039</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -29845,7 +32392,7 @@
         <v>0.39479672967640056</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -29871,7 +32418,7 @@
         <v>0.39479288841749849</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -29897,7 +32444,7 @@
         <v>0.39478889168050557</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -29923,7 +32470,7 @@
         <v>0.39478474100489791</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -29949,7 +32496,7 @@
         <v>0.39478043790720108</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
